--- a/target.xlsx
+++ b/target.xlsx
@@ -14,9 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{</t>
+    <t xml:space="preserve">      "Bahnar":["two ara"]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Bahnar":["one ara"]
+</t>
   </si>
 </sst>
 </file>
@@ -348,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,6 +364,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target.xlsx
+++ b/target.xlsx
@@ -16,12 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">      "Bahnar":["two ara"]
-</t>
+    <t>Ánh sáng cháy sáng gấp đôi chỉ cháy được một nửa thời gian.</t>
   </si>
   <si>
-    <t xml:space="preserve">      "Bahnar":["one ara"]
-</t>
+    <t>The light that burns twice as bright burns a half as long.</t>
   </si>
 </sst>
 </file>
@@ -353,19 +351,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/target.xlsx
+++ b/target.xlsx
@@ -1,36 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bahnar-word-split-and-example-finder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C0DBE1-705A-46AF-870D-31D7CE773AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Ánh sáng cháy sáng gấp đôi chỉ cháy được một nửa thời gian.</t>
-  </si>
-  <si>
-    <t>The light that burns twice as bright burns a half as long.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>của</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ñông </t>
+  </si>
+  <si>
+    <t>Nghị định 39 của Chính phủ ban hành, thể hiện sự quan tâm của Đảng, Nhà nước đối với phụ nữ thuộc hộ nghèo là người dân tộc thiểu số, khi sinh con đúng chính sách dân số.</t>
+  </si>
+  <si>
+    <t>Nghi ñinh 39 ñông Chinh phu aên lech, aên boh tôdrong ngo hnhei ñông Ñang, kôpal adring mai oh oei lôm kôbraê unh hnam dônuh la mai oh kon koâng, jônang ñeh kon tro tôdrong daân soâ</t>
+  </si>
+  <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>sônaêm</t>
+  </si>
+  <si>
+    <t>Theo đó, từ năm 2015 đến 2018, huyện Vĩnh Thạnh đã lập thủ tục giải quyết cho 307 phụ nữ thuộc hộ nghèo đồng bào DTTS, được hưởng chính sách hỗ trợ với tổng số tiền 614 triệu đồng.</t>
+  </si>
+  <si>
+    <t>Boi noh, ñông sônaêm 2015 truh sônaêm 2018, huyeân Vinh Thanh jôh pôm thu tuc tôgum aên 307 mai oh oei lôm kôbraê unh hnam dônuh naê ma kon koâng ñei höông tôdrong tôgum adring pôting ksoâ jeân 614 trieâu ñoâng.</t>
+  </si>
+  <si>
+    <t>Riêng trong năm 2018 có 71 người với số tiền hỗ trợ 142 triệu đồng</t>
+  </si>
+  <si>
+    <t>lĩnh vực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tôdrong </t>
+  </si>
+  <si>
+    <t>Các lĩnh vực văn hoá - xã hội có nhiều chuyển biến tích cực</t>
+  </si>
+  <si>
+    <t>Rim tôdrong vaên hoa – xa hoâi ôi lö tôplih pôjaêng</t>
+  </si>
+  <si>
+    <t>cấp ủy</t>
+  </si>
+  <si>
+    <t>kôp uy</t>
+  </si>
+  <si>
+    <t>Năng lực lãnh đạo của Đảng, hiệu lực, hiệu quả hoạt động quản lý, điều hành của cấp ủy, chính quyền từng bước được nâng lên</t>
+  </si>
+  <si>
+    <t>Tôdrong pôgôl ñông Ñang, thu yok tôdrong ngo hnhei, pôgôl ñông kôp uy, khul pôgôl rim tôdrong ñei poâk xuoân</t>
+  </si>
+  <si>
+    <t>Đẩy mạnh củng cố xây dựng tổ chức</t>
+  </si>
+  <si>
+    <t>Jôraê deâh cung coâ tôjung pôm toâ chöc</t>
+  </si>
+  <si>
+    <t>Chú trọng công tác phát triển đảng viên, tiếp tục thực hiện Nghị quyết số 18 của BCH TƯ Đảng Khóa XII về sắp xếp bộ máy tinh gọn, hoạt động hiệu quả, đẩy mạnh củng cố xây dựng tổ chức cơ sở Đảng trong sạch vững mạnh, nâng cao năng lực lãnh đạo và sức chiến đấu của tổ chức cơ sở Đảng</t>
+  </si>
+  <si>
+    <t>Ngo hnhei tôdrong pôjing ñang vieân, ling lang pôm Nghi quyeât ksoâ 18 ñông Khul chaâp hanh TÖ Ñang khoa XIII lôm sap xeâp boâ may alöng, pôm ôi thu yok, jôraê deâh cung coâ tôjung pôm toâ chöc cô sô Ñang uoâl ieâl kôjaêp, poâk xuoân tôdrong pôgôl oeng jaêng tôplah ñông toâ chöc cô sô Ñang</t>
+  </si>
+  <si>
+    <t>nâng cao năng lực lãnh đạo và sức chiến đấu</t>
+  </si>
+  <si>
+    <t>poâk xuoân tôdrong pôgôl oeng jaêng tôplah</t>
+  </si>
+  <si>
+    <t>chuẩn bị tốt công tác nhân sự cấp ủy</t>
+  </si>
+  <si>
+    <t>goâ ñech hôgei tôdrong nhaân sö kôp uy</t>
+  </si>
+  <si>
+    <t>Xây dựng kế hoạch tổ chức đại hội các chi bộ, đảng bộ; chuẩn bị tốt công tác nhân sự cấp ủy đảm bảo chặt chẽ, đúng điều lệ, quy chế, quy định</t>
+  </si>
+  <si>
+    <t>Tôjung pôm glong pônhroh pôlok ñai hoâi rim chi boâ, ñang boâ; goâ ñech hôgei tôdrong nhaân sö kôp uy tômaên tôl kôjaêp, trô tro tôdrong</t>
+  </si>
+  <si>
+    <t>Tổng kết việc thực hiện nghị quyết đại hội đảng bộ</t>
+  </si>
+  <si>
+    <t>Toâng keât tôdrong pôm nghi quyeât ñai hoâi ñang boâ</t>
+  </si>
+  <si>
+    <t>Theo đó, Huyện ủy xác định Đại hội đảng bộ từ huyện đến cơ sở thực hiện 04 nội dung: Tổng kết việc thực hiện nghị quyết đại hội đảng bộ, chi bộ nhiệm kỳ 2015 - 2020 và xác định phương hướng, mục tiêu, nhiệm vụ, giải pháp của đảng bộ, chi bộ nhiệm kỳ 2020 - 2025</t>
+  </si>
+  <si>
+    <t>Boi noh, Huyeân uy pôtho khan Ñai hoâi ñang boâ ñông huyeân truh cô sô pôm 04 tôdrong: Toâng keât tôdrong pôm nghi quyeât ñai hoâi ñang boâ, chi boâ nhieâm ky 2015 – 2020 oeng pôtho khan tôdrong pôm ñông ñang boâ, chi boâ nhieâm ky 2020 – 2025</t>
+  </si>
+  <si>
+    <t>Từ này</t>
+  </si>
+  <si>
+    <t>không tồn tại</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,13 +165,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,19 +462,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="244.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
